--- a/Code/Results/Cases/Case_3_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029065179834824</v>
+        <v>1.05334205180682</v>
       </c>
       <c r="D2">
-        <v>1.04523933178101</v>
+        <v>1.05842899860705</v>
       </c>
       <c r="E2">
-        <v>1.040929078326447</v>
+        <v>1.059965286444523</v>
       </c>
       <c r="F2">
-        <v>1.050554747438672</v>
+        <v>1.070491200670201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060950120368443</v>
+        <v>1.050116027385218</v>
       </c>
       <c r="J2">
-        <v>1.050409997805692</v>
+        <v>1.058359900749752</v>
       </c>
       <c r="K2">
-        <v>1.056102434798862</v>
+        <v>1.061161257660803</v>
       </c>
       <c r="L2">
-        <v>1.051846200640672</v>
+        <v>1.06269335357262</v>
       </c>
       <c r="M2">
-        <v>1.061351993344205</v>
+        <v>1.073190896744092</v>
       </c>
       <c r="N2">
-        <v>1.020182223572534</v>
+        <v>1.023208494420248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033834039786406</v>
+        <v>1.054341776837865</v>
       </c>
       <c r="D3">
-        <v>1.048918470128494</v>
+        <v>1.059219268414817</v>
       </c>
       <c r="E3">
-        <v>1.044926594637911</v>
+        <v>1.060850626133397</v>
       </c>
       <c r="F3">
-        <v>1.054850338624995</v>
+        <v>1.071447858155445</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062723523010688</v>
+        <v>1.05042028922828</v>
       </c>
       <c r="J3">
-        <v>1.053443004572686</v>
+        <v>1.059010226379492</v>
       </c>
       <c r="K3">
-        <v>1.058961471760203</v>
+        <v>1.061765618989672</v>
       </c>
       <c r="L3">
-        <v>1.055015175803041</v>
+        <v>1.063392846585844</v>
       </c>
       <c r="M3">
-        <v>1.064826394418586</v>
+        <v>1.07396357915616</v>
       </c>
       <c r="N3">
-        <v>1.021223571966938</v>
+        <v>1.023429061581402</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036855914309373</v>
+        <v>1.054989013788294</v>
       </c>
       <c r="D4">
-        <v>1.051252535204963</v>
+        <v>1.059730907244744</v>
       </c>
       <c r="E4">
-        <v>1.047465229214217</v>
+        <v>1.061424161477216</v>
       </c>
       <c r="F4">
-        <v>1.05757849330762</v>
+        <v>1.072067651268543</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063837145676632</v>
+        <v>1.050616018858009</v>
       </c>
       <c r="J4">
-        <v>1.055361623709812</v>
+        <v>1.059430752297112</v>
       </c>
       <c r="K4">
-        <v>1.060769368541251</v>
+        <v>1.062156304000965</v>
       </c>
       <c r="L4">
-        <v>1.057022650783422</v>
+        <v>1.063845486854482</v>
       </c>
       <c r="M4">
-        <v>1.06702832461303</v>
+        <v>1.074463700772439</v>
       </c>
       <c r="N4">
-        <v>1.021881948281738</v>
+        <v>1.023571590393608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03811156832786</v>
+        <v>1.055261194868426</v>
       </c>
       <c r="D5">
-        <v>1.052222991848094</v>
+        <v>1.059946066488843</v>
       </c>
       <c r="E5">
-        <v>1.048521372727046</v>
+        <v>1.061665432981164</v>
       </c>
       <c r="F5">
-        <v>1.058713540325021</v>
+        <v>1.07232839593013</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064297412455553</v>
+        <v>1.050698028260436</v>
       </c>
       <c r="J5">
-        <v>1.056158025142937</v>
+        <v>1.059607474026287</v>
       </c>
       <c r="K5">
-        <v>1.061519640994562</v>
+        <v>1.062320456890707</v>
       </c>
       <c r="L5">
-        <v>1.057856617759338</v>
+        <v>1.064035781121018</v>
       </c>
       <c r="M5">
-        <v>1.067943308312304</v>
+        <v>1.074673985530206</v>
       </c>
       <c r="N5">
-        <v>1.02215514189726</v>
+        <v>1.023631462988442</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038321549293374</v>
+        <v>1.055306900098322</v>
       </c>
       <c r="D6">
-        <v>1.052385313751203</v>
+        <v>1.059982196527615</v>
       </c>
       <c r="E6">
-        <v>1.048698064289453</v>
+        <v>1.061705952717716</v>
       </c>
       <c r="F6">
-        <v>1.058903435845364</v>
+        <v>1.072372186842127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064374235979447</v>
+        <v>1.050711781840642</v>
       </c>
       <c r="J6">
-        <v>1.056291156504925</v>
+        <v>1.059637142409982</v>
       </c>
       <c r="K6">
-        <v>1.061645050986016</v>
+        <v>1.062348013518736</v>
       </c>
       <c r="L6">
-        <v>1.057996068920023</v>
+        <v>1.064067732592953</v>
       </c>
       <c r="M6">
-        <v>1.068096320388856</v>
+        <v>1.074709295210966</v>
       </c>
       <c r="N6">
-        <v>1.022200805011275</v>
+        <v>1.023641513122877</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036872749631458</v>
+        <v>1.054992650361183</v>
       </c>
       <c r="D7">
-        <v>1.051265544394629</v>
+        <v>1.059733781954027</v>
       </c>
       <c r="E7">
-        <v>1.047479384550304</v>
+        <v>1.061427384742351</v>
       </c>
       <c r="F7">
-        <v>1.05759370594311</v>
+        <v>1.072071134631307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063843326552194</v>
+        <v>1.050617115754114</v>
       </c>
       <c r="J7">
-        <v>1.055372304859707</v>
+        <v>1.059433113927149</v>
       </c>
       <c r="K7">
-        <v>1.060779431698628</v>
+        <v>1.062158497778817</v>
       </c>
       <c r="L7">
-        <v>1.057033833057182</v>
+        <v>1.063848029559964</v>
       </c>
       <c r="M7">
-        <v>1.067040592277243</v>
+        <v>1.074466510476702</v>
       </c>
       <c r="N7">
-        <v>1.021885612664001</v>
+        <v>1.023572390597357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030690411952853</v>
+        <v>1.053679841114616</v>
       </c>
       <c r="D8">
-        <v>1.04649258656537</v>
+        <v>1.058696015061717</v>
       </c>
       <c r="E8">
-        <v>1.042290248306885</v>
+        <v>1.060264353544211</v>
       </c>
       <c r="F8">
-        <v>1.05201736767708</v>
+        <v>1.070814347075593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06155659819382</v>
+        <v>1.05021909154421</v>
       </c>
       <c r="J8">
-        <v>1.051444320471594</v>
+        <v>1.058579738501786</v>
       </c>
       <c r="K8">
-        <v>1.057077566320037</v>
+        <v>1.061365582023365</v>
       </c>
       <c r="L8">
-        <v>1.052926293818895</v>
+        <v>1.062929745543235</v>
       </c>
       <c r="M8">
-        <v>1.062535981510116</v>
+        <v>1.073451997909044</v>
       </c>
       <c r="N8">
-        <v>1.020537418284428</v>
+        <v>1.023283075859971</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019280513558586</v>
+        <v>1.051369197255987</v>
       </c>
       <c r="D9">
-        <v>1.037707758864525</v>
+        <v>1.056869540688981</v>
       </c>
       <c r="E9">
-        <v>1.032759537054911</v>
+        <v>1.058220057124983</v>
       </c>
       <c r="F9">
-        <v>1.041777134360575</v>
+        <v>1.068605686959257</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057257422245204</v>
+        <v>1.049508949452723</v>
       </c>
       <c r="J9">
-        <v>1.044170327987571</v>
+        <v>1.05707388405131</v>
       </c>
       <c r="K9">
-        <v>1.050217306422266</v>
+        <v>1.059965509246173</v>
       </c>
       <c r="L9">
-        <v>1.045342568219133</v>
+        <v>1.061311814154867</v>
       </c>
       <c r="M9">
-        <v>1.054226913441049</v>
+        <v>1.071665444977578</v>
       </c>
       <c r="N9">
-        <v>1.018038193129578</v>
+        <v>1.02277180398448</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.011287606665138</v>
+        <v>1.04983061563817</v>
       </c>
       <c r="D10">
-        <v>1.031573537175777</v>
+        <v>1.055653436443718</v>
       </c>
       <c r="E10">
-        <v>1.0261174445643</v>
+        <v>1.056860694054191</v>
       </c>
       <c r="F10">
-        <v>1.034641445071142</v>
+        <v>1.067137319551857</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05419487913994</v>
+        <v>1.049029650412557</v>
       </c>
       <c r="J10">
-        <v>1.039060431128687</v>
+        <v>1.056068614122918</v>
       </c>
       <c r="K10">
-        <v>1.045395199080222</v>
+        <v>1.059030254549401</v>
       </c>
       <c r="L10">
-        <v>1.040030626246976</v>
+        <v>1.06023337890562</v>
       </c>
       <c r="M10">
-        <v>1.048412191946927</v>
+        <v>1.0704752364921</v>
       </c>
       <c r="N10">
-        <v>1.016281172597529</v>
+        <v>1.022429992694378</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007725355900196</v>
+        <v>1.049164838114699</v>
       </c>
       <c r="D11">
-        <v>1.028845185567507</v>
+        <v>1.055127229531381</v>
       </c>
       <c r="E11">
-        <v>1.023166130588651</v>
+        <v>1.056272918280567</v>
       </c>
       <c r="F11">
-        <v>1.031470964960765</v>
+        <v>1.066502479627845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052818502386339</v>
+        <v>1.048820721605477</v>
       </c>
       <c r="J11">
-        <v>1.036780245485285</v>
+        <v>1.055633005729537</v>
       </c>
       <c r="K11">
-        <v>1.04324288190148</v>
+        <v>1.058624844078699</v>
       </c>
       <c r="L11">
-        <v>1.037664003237323</v>
+        <v>1.059766458685395</v>
       </c>
       <c r="M11">
-        <v>1.045822826346009</v>
+        <v>1.069960070422136</v>
       </c>
       <c r="N11">
-        <v>1.015496912604078</v>
+        <v>1.022281760196308</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.006386074977406</v>
+        <v>1.048917605065462</v>
       </c>
       <c r="D12">
-        <v>1.02782032732409</v>
+        <v>1.054931830097431</v>
       </c>
       <c r="E12">
-        <v>1.022057946958672</v>
+        <v>1.056054719004713</v>
       </c>
       <c r="F12">
-        <v>1.030280505910783</v>
+        <v>1.066266819008109</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052299362505826</v>
+        <v>1.048742907834626</v>
       </c>
       <c r="J12">
-        <v>1.035922602292488</v>
+        <v>1.055471153975814</v>
       </c>
       <c r="K12">
-        <v>1.042433261978747</v>
+        <v>1.05847419132705</v>
       </c>
       <c r="L12">
-        <v>1.036774411119076</v>
+        <v>1.059593031910102</v>
       </c>
       <c r="M12">
-        <v>1.044849697541301</v>
+        <v>1.069768746020929</v>
       </c>
       <c r="N12">
-        <v>1.015201904035177</v>
+        <v>1.022226666409566</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.00667409892628</v>
+        <v>1.048970634382596</v>
       </c>
       <c r="D13">
-        <v>1.028040689769116</v>
+        <v>1.05497374133265</v>
       </c>
       <c r="E13">
-        <v>1.022296206758794</v>
+        <v>1.056101517735165</v>
       </c>
       <c r="F13">
-        <v>1.030536454171798</v>
+        <v>1.066317362333539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052411082626028</v>
+        <v>1.048759608572667</v>
       </c>
       <c r="J13">
-        <v>1.036107061918326</v>
+        <v>1.05550587386082</v>
       </c>
       <c r="K13">
-        <v>1.042607395942439</v>
+        <v>1.05850650979513</v>
       </c>
       <c r="L13">
-        <v>1.036965716753987</v>
+        <v>1.059630232159408</v>
       </c>
       <c r="M13">
-        <v>1.045058959021269</v>
+        <v>1.069809784328118</v>
       </c>
       <c r="N13">
-        <v>1.015265354735307</v>
+        <v>1.022238485731001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007614984370873</v>
+        <v>1.049144400396999</v>
       </c>
       <c r="D14">
-        <v>1.028760707075737</v>
+        <v>1.055111076579605</v>
       </c>
       <c r="E14">
-        <v>1.023074775036887</v>
+        <v>1.056254879267499</v>
       </c>
       <c r="F14">
-        <v>1.031372826497044</v>
+        <v>1.066482996838795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052775753168151</v>
+        <v>1.048814293742049</v>
       </c>
       <c r="J14">
-        <v>1.036709573512333</v>
+        <v>1.055619627976237</v>
       </c>
       <c r="K14">
-        <v>1.043176168559063</v>
+        <v>1.058612392402285</v>
       </c>
       <c r="L14">
-        <v>1.037590687136293</v>
+        <v>1.059752123002642</v>
       </c>
       <c r="M14">
-        <v>1.045742621662265</v>
+        <v>1.069944254845703</v>
       </c>
       <c r="N14">
-        <v>1.015472603629457</v>
+        <v>1.022277206811096</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008192533561297</v>
+        <v>1.049251472182511</v>
       </c>
       <c r="D15">
-        <v>1.02920280125176</v>
+        <v>1.055195700973488</v>
       </c>
       <c r="E15">
-        <v>1.023552875664234</v>
+        <v>1.056349387203773</v>
       </c>
       <c r="F15">
-        <v>1.031886425593964</v>
+        <v>1.066585069259749</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052999382371391</v>
+        <v>1.048847959488634</v>
       </c>
       <c r="J15">
-        <v>1.037079369005912</v>
+        <v>1.055689709379728</v>
       </c>
       <c r="K15">
-        <v>1.043525247417206</v>
+        <v>1.058677621545733</v>
       </c>
       <c r="L15">
-        <v>1.037974341143512</v>
+        <v>1.059827225081559</v>
       </c>
       <c r="M15">
-        <v>1.046162330522516</v>
+        <v>1.070027110731655</v>
       </c>
       <c r="N15">
-        <v>1.015599800843913</v>
+        <v>1.022301059698568</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.011521813582307</v>
+        <v>1.049874810379613</v>
       </c>
       <c r="D16">
-        <v>1.031753039210581</v>
+        <v>1.055688367035193</v>
       </c>
       <c r="E16">
-        <v>1.026311675505025</v>
+        <v>1.056899720525556</v>
       </c>
       <c r="F16">
-        <v>1.034850102576679</v>
+        <v>1.067179472371946</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054285137103793</v>
+        <v>1.049043487095151</v>
       </c>
       <c r="J16">
-        <v>1.039210291643345</v>
+        <v>1.056097517333898</v>
       </c>
       <c r="K16">
-        <v>1.045536645147981</v>
+        <v>1.059057151117757</v>
       </c>
       <c r="L16">
-        <v>1.040186245436783</v>
+        <v>1.060264367968367</v>
       </c>
       <c r="M16">
-        <v>1.04858248407605</v>
+        <v>1.070509430697836</v>
       </c>
       <c r="N16">
-        <v>1.016332712443773</v>
+        <v>1.022439825662956</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.013582463698549</v>
+        <v>1.050265931698646</v>
       </c>
       <c r="D17">
-        <v>1.0333330105742</v>
+        <v>1.05599750435419</v>
       </c>
       <c r="E17">
-        <v>1.02802162198139</v>
+        <v>1.057245154986289</v>
       </c>
       <c r="F17">
-        <v>1.036687073120677</v>
+        <v>1.067552586930282</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055077965141964</v>
+        <v>1.049165764758347</v>
       </c>
       <c r="J17">
-        <v>1.040528511479537</v>
+        <v>1.056353239311802</v>
       </c>
       <c r="K17">
-        <v>1.046780787465215</v>
+        <v>1.059295102951718</v>
       </c>
       <c r="L17">
-        <v>1.041555543869074</v>
+        <v>1.060538589908976</v>
       </c>
       <c r="M17">
-        <v>1.05008103368178</v>
+        <v>1.070812031971853</v>
       </c>
       <c r="N17">
-        <v>1.016786048280727</v>
+        <v>1.022526809610824</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.01477469833947</v>
+        <v>1.050494108419564</v>
       </c>
       <c r="D18">
-        <v>1.034247656873602</v>
+        <v>1.056177854963834</v>
       </c>
       <c r="E18">
-        <v>1.029011789670404</v>
+        <v>1.057446721792986</v>
       </c>
       <c r="F18">
-        <v>1.037750810965486</v>
+        <v>1.067770312136352</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055535581622674</v>
+        <v>1.049236953190026</v>
       </c>
       <c r="J18">
-        <v>1.041290925334706</v>
+        <v>1.056502366706991</v>
       </c>
       <c r="K18">
-        <v>1.047500304346281</v>
+        <v>1.059433853824656</v>
       </c>
       <c r="L18">
-        <v>1.042347852243891</v>
+        <v>1.060698543638297</v>
       </c>
       <c r="M18">
-        <v>1.050948249299684</v>
+        <v>1.070988553613461</v>
       </c>
       <c r="N18">
-        <v>1.017048220472783</v>
+        <v>1.022577524053878</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.015179598850859</v>
+        <v>1.050571917940098</v>
       </c>
       <c r="D19">
-        <v>1.034558370124091</v>
+        <v>1.056239355943439</v>
       </c>
       <c r="E19">
-        <v>1.029348205849736</v>
+        <v>1.057515464527732</v>
       </c>
       <c r="F19">
-        <v>1.038112225807586</v>
+        <v>1.067844566683224</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055690808224444</v>
+        <v>1.049261203854556</v>
       </c>
       <c r="J19">
-        <v>1.041549804853998</v>
+        <v>1.056553210032442</v>
       </c>
       <c r="K19">
-        <v>1.047744608771133</v>
+        <v>1.059481157072466</v>
       </c>
       <c r="L19">
-        <v>1.042616942196205</v>
+        <v>1.060753084502106</v>
       </c>
       <c r="M19">
-        <v>1.051242800074822</v>
+        <v>1.071048746202481</v>
       </c>
       <c r="N19">
-        <v>1.017137237732052</v>
+        <v>1.022594812657548</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.013362385765531</v>
+        <v>1.050223963706559</v>
       </c>
       <c r="D20">
-        <v>1.033164214876536</v>
+        <v>1.055964333110176</v>
       </c>
       <c r="E20">
-        <v>1.027838911614797</v>
+        <v>1.057208084780217</v>
       </c>
       <c r="F20">
-        <v>1.036490788501456</v>
+        <v>1.067512545559938</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054993403817694</v>
+        <v>1.049152659385929</v>
       </c>
       <c r="J20">
-        <v>1.040387753082655</v>
+        <v>1.056325805955876</v>
       </c>
       <c r="K20">
-        <v>1.046647944429267</v>
+        <v>1.059269577353007</v>
       </c>
       <c r="L20">
-        <v>1.041409294751048</v>
+        <v>1.060509167997107</v>
       </c>
       <c r="M20">
-        <v>1.049920967378034</v>
+        <v>1.070779563702131</v>
       </c>
       <c r="N20">
-        <v>1.016737643685853</v>
+        <v>1.022517479311334</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.00733836902316</v>
+        <v>1.04909322880074</v>
       </c>
       <c r="D21">
-        <v>1.028549000236371</v>
+        <v>1.055070633184031</v>
       </c>
       <c r="E21">
-        <v>1.022845840808085</v>
+        <v>1.056209714609799</v>
       </c>
       <c r="F21">
-        <v>1.031126894785963</v>
+        <v>1.066434217533732</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052668587493101</v>
+        <v>1.04879819606982</v>
       </c>
       <c r="J21">
-        <v>1.036532448150772</v>
+        <v>1.0555861315277</v>
       </c>
       <c r="K21">
-        <v>1.043008963607887</v>
+        <v>1.058581214409133</v>
       </c>
       <c r="L21">
-        <v>1.03740694386407</v>
+        <v>1.059716228955257</v>
       </c>
       <c r="M21">
-        <v>1.04554161743646</v>
+        <v>1.069904655761279</v>
       </c>
       <c r="N21">
-        <v>1.015411677589621</v>
+        <v>1.022265805344157</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003457178498091</v>
+        <v>1.048382675111437</v>
       </c>
       <c r="D22">
-        <v>1.02558080039264</v>
+        <v>1.054509060261116</v>
       </c>
       <c r="E22">
-        <v>1.019637106255835</v>
+        <v>1.055582733882708</v>
       </c>
       <c r="F22">
-        <v>1.02767996308152</v>
+        <v>1.065757082038923</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051161034877122</v>
+        <v>1.048574125898839</v>
       </c>
       <c r="J22">
-        <v>1.034046378790123</v>
+        <v>1.055120794936983</v>
       </c>
       <c r="K22">
-        <v>1.040661977443622</v>
+        <v>1.058148036128133</v>
       </c>
       <c r="L22">
-        <v>1.034829333919919</v>
+        <v>1.059217724440559</v>
       </c>
       <c r="M22">
-        <v>1.04272231988226</v>
+        <v>1.06935474744001</v>
       </c>
       <c r="N22">
-        <v>1.014556489825229</v>
+        <v>1.022107373473134</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005523862125797</v>
+        <v>1.048759316480666</v>
       </c>
       <c r="D23">
-        <v>1.027160801075872</v>
+        <v>1.054806728913085</v>
       </c>
       <c r="E23">
-        <v>1.021344916913899</v>
+        <v>1.055915038296684</v>
       </c>
       <c r="F23">
-        <v>1.029514542763071</v>
+        <v>1.066115963258347</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051964682622743</v>
+        <v>1.048693023824584</v>
       </c>
       <c r="J23">
-        <v>1.035370363267436</v>
+        <v>1.055367504412512</v>
       </c>
       <c r="K23">
-        <v>1.041911926509268</v>
+        <v>1.058377707647017</v>
       </c>
       <c r="L23">
-        <v>1.036201759130487</v>
+        <v>1.059481986334261</v>
       </c>
       <c r="M23">
-        <v>1.044223324700065</v>
+        <v>1.069646246799588</v>
       </c>
       <c r="N23">
-        <v>1.015011940856947</v>
+        <v>1.022191379534404</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.0134618594451</v>
+        <v>1.050242927105043</v>
       </c>
       <c r="D24">
-        <v>1.033240507742454</v>
+        <v>1.055979321656219</v>
       </c>
       <c r="E24">
-        <v>1.027921492816059</v>
+        <v>1.057224834961301</v>
       </c>
       <c r="F24">
-        <v>1.036579504929016</v>
+        <v>1.067530638241888</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05503162833136</v>
+        <v>1.049158581553843</v>
       </c>
       <c r="J24">
-        <v>1.040451375734382</v>
+        <v>1.056338202004087</v>
       </c>
       <c r="K24">
-        <v>1.046707989511258</v>
+        <v>1.059281111403389</v>
       </c>
       <c r="L24">
-        <v>1.041475398110535</v>
+        <v>1.060522462478114</v>
       </c>
       <c r="M24">
-        <v>1.049993315617775</v>
+        <v>1.070794234655626</v>
       </c>
       <c r="N24">
-        <v>1.016759522582025</v>
+        <v>1.022521695339502</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022295276783155</v>
+        <v>1.051966231111543</v>
       </c>
       <c r="D25">
-        <v>1.040025776736458</v>
+        <v>1.057341460392908</v>
       </c>
       <c r="E25">
-        <v>1.035272085201961</v>
+        <v>1.058747944285346</v>
       </c>
       <c r="F25">
-        <v>1.044476562664855</v>
+        <v>1.06917596549898</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058402313819211</v>
+        <v>1.04969357500593</v>
       </c>
       <c r="J25">
-        <v>1.04609492699372</v>
+        <v>1.057463427654091</v>
       </c>
       <c r="K25">
-        <v>1.052032967665536</v>
+        <v>1.060327795090404</v>
       </c>
       <c r="L25">
-        <v>1.047346455420666</v>
+        <v>1.06173005911109</v>
       </c>
       <c r="M25">
-        <v>1.056421554363789</v>
+        <v>1.072127170040976</v>
       </c>
       <c r="N25">
-        <v>1.018699714725435</v>
+        <v>1.022904151273013</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_80/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_80/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05334205180682</v>
+        <v>1.029065179834825</v>
       </c>
       <c r="D2">
-        <v>1.05842899860705</v>
+        <v>1.04523933178101</v>
       </c>
       <c r="E2">
-        <v>1.059965286444523</v>
+        <v>1.040929078326447</v>
       </c>
       <c r="F2">
-        <v>1.070491200670201</v>
+        <v>1.050554747438673</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050116027385218</v>
+        <v>1.060950120368444</v>
       </c>
       <c r="J2">
-        <v>1.058359900749752</v>
+        <v>1.050409997805692</v>
       </c>
       <c r="K2">
-        <v>1.061161257660803</v>
+        <v>1.056102434798863</v>
       </c>
       <c r="L2">
-        <v>1.06269335357262</v>
+        <v>1.051846200640672</v>
       </c>
       <c r="M2">
-        <v>1.073190896744092</v>
+        <v>1.061351993344205</v>
       </c>
       <c r="N2">
-        <v>1.023208494420248</v>
+        <v>1.020182223572534</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054341776837865</v>
+        <v>1.033834039786405</v>
       </c>
       <c r="D3">
-        <v>1.059219268414817</v>
+        <v>1.048918470128493</v>
       </c>
       <c r="E3">
-        <v>1.060850626133397</v>
+        <v>1.044926594637911</v>
       </c>
       <c r="F3">
-        <v>1.071447858155445</v>
+        <v>1.054850338624995</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05042028922828</v>
+        <v>1.062723523010688</v>
       </c>
       <c r="J3">
-        <v>1.059010226379492</v>
+        <v>1.053443004572686</v>
       </c>
       <c r="K3">
-        <v>1.061765618989672</v>
+        <v>1.058961471760202</v>
       </c>
       <c r="L3">
-        <v>1.063392846585844</v>
+        <v>1.055015175803041</v>
       </c>
       <c r="M3">
-        <v>1.07396357915616</v>
+        <v>1.064826394418585</v>
       </c>
       <c r="N3">
-        <v>1.023429061581402</v>
+        <v>1.021223571966938</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054989013788294</v>
+        <v>1.036855914309371</v>
       </c>
       <c r="D4">
-        <v>1.059730907244744</v>
+        <v>1.051252535204961</v>
       </c>
       <c r="E4">
-        <v>1.061424161477216</v>
+        <v>1.047465229214214</v>
       </c>
       <c r="F4">
-        <v>1.072067651268543</v>
+        <v>1.057578493307617</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050616018858009</v>
+        <v>1.06383714567663</v>
       </c>
       <c r="J4">
-        <v>1.059430752297112</v>
+        <v>1.05536162370981</v>
       </c>
       <c r="K4">
-        <v>1.062156304000965</v>
+        <v>1.060769368541248</v>
       </c>
       <c r="L4">
-        <v>1.063845486854482</v>
+        <v>1.05702265078342</v>
       </c>
       <c r="M4">
-        <v>1.074463700772439</v>
+        <v>1.067028324613028</v>
       </c>
       <c r="N4">
-        <v>1.023571590393608</v>
+        <v>1.021881948281737</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055261194868426</v>
+        <v>1.038111568327859</v>
       </c>
       <c r="D5">
-        <v>1.059946066488843</v>
+        <v>1.052222991848093</v>
       </c>
       <c r="E5">
-        <v>1.061665432981164</v>
+        <v>1.048521372727045</v>
       </c>
       <c r="F5">
-        <v>1.07232839593013</v>
+        <v>1.058713540325019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050698028260436</v>
+        <v>1.064297412455552</v>
       </c>
       <c r="J5">
-        <v>1.059607474026287</v>
+        <v>1.056158025142936</v>
       </c>
       <c r="K5">
-        <v>1.062320456890707</v>
+        <v>1.061519640994561</v>
       </c>
       <c r="L5">
-        <v>1.064035781121018</v>
+        <v>1.057856617759336</v>
       </c>
       <c r="M5">
-        <v>1.074673985530206</v>
+        <v>1.067943308312303</v>
       </c>
       <c r="N5">
-        <v>1.023631462988442</v>
+        <v>1.02215514189726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055306900098322</v>
+        <v>1.038321549293371</v>
       </c>
       <c r="D6">
-        <v>1.059982196527615</v>
+        <v>1.0523853137512</v>
       </c>
       <c r="E6">
-        <v>1.061705952717716</v>
+        <v>1.04869806428945</v>
       </c>
       <c r="F6">
-        <v>1.072372186842127</v>
+        <v>1.058903435845362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050711781840642</v>
+        <v>1.064374235979445</v>
       </c>
       <c r="J6">
-        <v>1.059637142409982</v>
+        <v>1.056291156504923</v>
       </c>
       <c r="K6">
-        <v>1.062348013518736</v>
+        <v>1.061645050986013</v>
       </c>
       <c r="L6">
-        <v>1.064067732592953</v>
+        <v>1.057996068920021</v>
       </c>
       <c r="M6">
-        <v>1.074709295210966</v>
+        <v>1.068096320388853</v>
       </c>
       <c r="N6">
-        <v>1.023641513122877</v>
+        <v>1.022200805011274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054992650361183</v>
+        <v>1.036872749631458</v>
       </c>
       <c r="D7">
-        <v>1.059733781954027</v>
+        <v>1.051265544394629</v>
       </c>
       <c r="E7">
-        <v>1.061427384742351</v>
+        <v>1.047479384550303</v>
       </c>
       <c r="F7">
-        <v>1.072071134631307</v>
+        <v>1.057593705943111</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050617115754114</v>
+        <v>1.063843326552194</v>
       </c>
       <c r="J7">
-        <v>1.059433113927149</v>
+        <v>1.055372304859707</v>
       </c>
       <c r="K7">
-        <v>1.062158497778817</v>
+        <v>1.060779431698628</v>
       </c>
       <c r="L7">
-        <v>1.063848029559964</v>
+        <v>1.057033833057182</v>
       </c>
       <c r="M7">
-        <v>1.074466510476702</v>
+        <v>1.067040592277243</v>
       </c>
       <c r="N7">
-        <v>1.023572390597357</v>
+        <v>1.021885612664001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053679841114616</v>
+        <v>1.030690411952853</v>
       </c>
       <c r="D8">
-        <v>1.058696015061717</v>
+        <v>1.04649258656537</v>
       </c>
       <c r="E8">
-        <v>1.060264353544211</v>
+        <v>1.042290248306885</v>
       </c>
       <c r="F8">
-        <v>1.070814347075593</v>
+        <v>1.05201736767708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05021909154421</v>
+        <v>1.06155659819382</v>
       </c>
       <c r="J8">
-        <v>1.058579738501786</v>
+        <v>1.051444320471594</v>
       </c>
       <c r="K8">
-        <v>1.061365582023365</v>
+        <v>1.057077566320037</v>
       </c>
       <c r="L8">
-        <v>1.062929745543235</v>
+        <v>1.052926293818895</v>
       </c>
       <c r="M8">
-        <v>1.073451997909044</v>
+        <v>1.062535981510117</v>
       </c>
       <c r="N8">
-        <v>1.023283075859971</v>
+        <v>1.020537418284428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051369197255987</v>
+        <v>1.019280513558585</v>
       </c>
       <c r="D9">
-        <v>1.056869540688981</v>
+        <v>1.037707758864523</v>
       </c>
       <c r="E9">
-        <v>1.058220057124983</v>
+        <v>1.032759537054909</v>
       </c>
       <c r="F9">
-        <v>1.068605686959257</v>
+        <v>1.041777134360573</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049508949452723</v>
+        <v>1.057257422245203</v>
       </c>
       <c r="J9">
-        <v>1.05707388405131</v>
+        <v>1.044170327987569</v>
       </c>
       <c r="K9">
-        <v>1.059965509246173</v>
+        <v>1.050217306422264</v>
       </c>
       <c r="L9">
-        <v>1.061311814154867</v>
+        <v>1.045342568219131</v>
       </c>
       <c r="M9">
-        <v>1.071665444977578</v>
+        <v>1.054226913441046</v>
       </c>
       <c r="N9">
-        <v>1.02277180398448</v>
+        <v>1.018038193129578</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04983061563817</v>
+        <v>1.011287606665138</v>
       </c>
       <c r="D10">
-        <v>1.055653436443718</v>
+        <v>1.031573537175778</v>
       </c>
       <c r="E10">
-        <v>1.056860694054191</v>
+        <v>1.0261174445643</v>
       </c>
       <c r="F10">
-        <v>1.067137319551857</v>
+        <v>1.034641445071142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049029650412557</v>
+        <v>1.05419487913994</v>
       </c>
       <c r="J10">
-        <v>1.056068614122918</v>
+        <v>1.039060431128688</v>
       </c>
       <c r="K10">
-        <v>1.059030254549401</v>
+        <v>1.045395199080222</v>
       </c>
       <c r="L10">
-        <v>1.06023337890562</v>
+        <v>1.040030626246977</v>
       </c>
       <c r="M10">
-        <v>1.0704752364921</v>
+        <v>1.048412191946927</v>
       </c>
       <c r="N10">
-        <v>1.022429992694378</v>
+        <v>1.016281172597529</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049164838114699</v>
+        <v>1.007725355900196</v>
       </c>
       <c r="D11">
-        <v>1.055127229531381</v>
+        <v>1.028845185567507</v>
       </c>
       <c r="E11">
-        <v>1.056272918280567</v>
+        <v>1.023166130588651</v>
       </c>
       <c r="F11">
-        <v>1.066502479627845</v>
+        <v>1.031470964960765</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048820721605477</v>
+        <v>1.052818502386339</v>
       </c>
       <c r="J11">
-        <v>1.055633005729537</v>
+        <v>1.036780245485285</v>
       </c>
       <c r="K11">
-        <v>1.058624844078699</v>
+        <v>1.04324288190148</v>
       </c>
       <c r="L11">
-        <v>1.059766458685395</v>
+        <v>1.037664003237323</v>
       </c>
       <c r="M11">
-        <v>1.069960070422136</v>
+        <v>1.045822826346009</v>
       </c>
       <c r="N11">
-        <v>1.022281760196308</v>
+        <v>1.015496912604079</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.048917605065462</v>
+        <v>1.006386074977406</v>
       </c>
       <c r="D12">
-        <v>1.054931830097431</v>
+        <v>1.027820327324089</v>
       </c>
       <c r="E12">
-        <v>1.056054719004713</v>
+        <v>1.022057946958672</v>
       </c>
       <c r="F12">
-        <v>1.066266819008109</v>
+        <v>1.030280505910782</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048742907834626</v>
+        <v>1.052299362505825</v>
       </c>
       <c r="J12">
-        <v>1.055471153975814</v>
+        <v>1.035922602292488</v>
       </c>
       <c r="K12">
-        <v>1.05847419132705</v>
+        <v>1.042433261978746</v>
       </c>
       <c r="L12">
-        <v>1.059593031910102</v>
+        <v>1.036774411119076</v>
       </c>
       <c r="M12">
-        <v>1.069768746020929</v>
+        <v>1.0448496975413</v>
       </c>
       <c r="N12">
-        <v>1.022226666409566</v>
+        <v>1.015201904035177</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.048970634382596</v>
+        <v>1.006674098926281</v>
       </c>
       <c r="D13">
-        <v>1.05497374133265</v>
+        <v>1.028040689769117</v>
       </c>
       <c r="E13">
-        <v>1.056101517735165</v>
+        <v>1.022296206758795</v>
       </c>
       <c r="F13">
-        <v>1.066317362333539</v>
+        <v>1.030536454171799</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048759608572667</v>
+        <v>1.052411082626029</v>
       </c>
       <c r="J13">
-        <v>1.05550587386082</v>
+        <v>1.036107061918328</v>
       </c>
       <c r="K13">
-        <v>1.05850650979513</v>
+        <v>1.04260739594244</v>
       </c>
       <c r="L13">
-        <v>1.059630232159408</v>
+        <v>1.036965716753989</v>
       </c>
       <c r="M13">
-        <v>1.069809784328118</v>
+        <v>1.045058959021271</v>
       </c>
       <c r="N13">
-        <v>1.022238485731001</v>
+        <v>1.015265354735307</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049144400396999</v>
+        <v>1.007614984370871</v>
       </c>
       <c r="D14">
-        <v>1.055111076579605</v>
+        <v>1.028760707075735</v>
       </c>
       <c r="E14">
-        <v>1.056254879267499</v>
+        <v>1.023074775036886</v>
       </c>
       <c r="F14">
-        <v>1.066482996838795</v>
+        <v>1.031372826497042</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048814293742049</v>
+        <v>1.05277575316815</v>
       </c>
       <c r="J14">
-        <v>1.055619627976237</v>
+        <v>1.036709573512331</v>
       </c>
       <c r="K14">
-        <v>1.058612392402285</v>
+        <v>1.043176168559063</v>
       </c>
       <c r="L14">
-        <v>1.059752123002642</v>
+        <v>1.037590687136292</v>
       </c>
       <c r="M14">
-        <v>1.069944254845703</v>
+        <v>1.045742621662263</v>
       </c>
       <c r="N14">
-        <v>1.022277206811096</v>
+        <v>1.015472603629456</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049251472182511</v>
+        <v>1.008192533561298</v>
       </c>
       <c r="D15">
-        <v>1.055195700973488</v>
+        <v>1.029202801251761</v>
       </c>
       <c r="E15">
-        <v>1.056349387203773</v>
+        <v>1.023552875664235</v>
       </c>
       <c r="F15">
-        <v>1.066585069259749</v>
+        <v>1.031886425593965</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048847959488634</v>
+        <v>1.052999382371392</v>
       </c>
       <c r="J15">
-        <v>1.055689709379728</v>
+        <v>1.037079369005913</v>
       </c>
       <c r="K15">
-        <v>1.058677621545733</v>
+        <v>1.043525247417207</v>
       </c>
       <c r="L15">
-        <v>1.059827225081559</v>
+        <v>1.037974341143512</v>
       </c>
       <c r="M15">
-        <v>1.070027110731655</v>
+        <v>1.046162330522517</v>
       </c>
       <c r="N15">
-        <v>1.022301059698568</v>
+        <v>1.015599800843913</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049874810379613</v>
+        <v>1.011521813582307</v>
       </c>
       <c r="D16">
-        <v>1.055688367035193</v>
+        <v>1.031753039210581</v>
       </c>
       <c r="E16">
-        <v>1.056899720525556</v>
+        <v>1.026311675505024</v>
       </c>
       <c r="F16">
-        <v>1.067179472371946</v>
+        <v>1.034850102576678</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049043487095151</v>
+        <v>1.054285137103793</v>
       </c>
       <c r="J16">
-        <v>1.056097517333898</v>
+        <v>1.039210291643345</v>
       </c>
       <c r="K16">
-        <v>1.059057151117757</v>
+        <v>1.045536645147981</v>
       </c>
       <c r="L16">
-        <v>1.060264367968367</v>
+        <v>1.040186245436783</v>
       </c>
       <c r="M16">
-        <v>1.070509430697836</v>
+        <v>1.04858248407605</v>
       </c>
       <c r="N16">
-        <v>1.022439825662956</v>
+        <v>1.016332712443773</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.050265931698646</v>
+        <v>1.013582463698548</v>
       </c>
       <c r="D17">
-        <v>1.05599750435419</v>
+        <v>1.0333330105742</v>
       </c>
       <c r="E17">
-        <v>1.057245154986289</v>
+        <v>1.028021621981389</v>
       </c>
       <c r="F17">
-        <v>1.067552586930282</v>
+        <v>1.036687073120676</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049165764758347</v>
+        <v>1.055077965141963</v>
       </c>
       <c r="J17">
-        <v>1.056353239311802</v>
+        <v>1.040528511479536</v>
       </c>
       <c r="K17">
-        <v>1.059295102951718</v>
+        <v>1.046780787465214</v>
       </c>
       <c r="L17">
-        <v>1.060538589908976</v>
+        <v>1.041555543869073</v>
       </c>
       <c r="M17">
-        <v>1.070812031971853</v>
+        <v>1.050081033681779</v>
       </c>
       <c r="N17">
-        <v>1.022526809610824</v>
+        <v>1.016786048280727</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050494108419564</v>
+        <v>1.014774698339469</v>
       </c>
       <c r="D18">
-        <v>1.056177854963834</v>
+        <v>1.034247656873601</v>
       </c>
       <c r="E18">
-        <v>1.057446721792986</v>
+        <v>1.029011789670403</v>
       </c>
       <c r="F18">
-        <v>1.067770312136352</v>
+        <v>1.037750810965486</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049236953190026</v>
+        <v>1.055535581622673</v>
       </c>
       <c r="J18">
-        <v>1.056502366706991</v>
+        <v>1.041290925334705</v>
       </c>
       <c r="K18">
-        <v>1.059433853824656</v>
+        <v>1.047500304346281</v>
       </c>
       <c r="L18">
-        <v>1.060698543638297</v>
+        <v>1.04234785224389</v>
       </c>
       <c r="M18">
-        <v>1.070988553613461</v>
+        <v>1.050948249299683</v>
       </c>
       <c r="N18">
-        <v>1.022577524053878</v>
+        <v>1.017048220472783</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050571917940098</v>
+        <v>1.015179598850858</v>
       </c>
       <c r="D19">
-        <v>1.056239355943439</v>
+        <v>1.034558370124091</v>
       </c>
       <c r="E19">
-        <v>1.057515464527732</v>
+        <v>1.029348205849736</v>
       </c>
       <c r="F19">
-        <v>1.067844566683224</v>
+        <v>1.038112225807586</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049261203854556</v>
+        <v>1.055690808224444</v>
       </c>
       <c r="J19">
-        <v>1.056553210032442</v>
+        <v>1.041549804853997</v>
       </c>
       <c r="K19">
-        <v>1.059481157072466</v>
+        <v>1.047744608771132</v>
       </c>
       <c r="L19">
-        <v>1.060753084502106</v>
+        <v>1.042616942196204</v>
       </c>
       <c r="M19">
-        <v>1.071048746202481</v>
+        <v>1.051242800074821</v>
       </c>
       <c r="N19">
-        <v>1.022594812657548</v>
+        <v>1.017137237732052</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.050223963706559</v>
+        <v>1.013362385765532</v>
       </c>
       <c r="D20">
-        <v>1.055964333110176</v>
+        <v>1.033164214876537</v>
       </c>
       <c r="E20">
-        <v>1.057208084780217</v>
+        <v>1.027838911614797</v>
       </c>
       <c r="F20">
-        <v>1.067512545559938</v>
+        <v>1.036490788501457</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049152659385929</v>
+        <v>1.054993403817695</v>
       </c>
       <c r="J20">
-        <v>1.056325805955876</v>
+        <v>1.040387753082656</v>
       </c>
       <c r="K20">
-        <v>1.059269577353007</v>
+        <v>1.046647944429268</v>
       </c>
       <c r="L20">
-        <v>1.060509167997107</v>
+        <v>1.041409294751049</v>
       </c>
       <c r="M20">
-        <v>1.070779563702131</v>
+        <v>1.049920967378035</v>
       </c>
       <c r="N20">
-        <v>1.022517479311334</v>
+        <v>1.016737643685853</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04909322880074</v>
+        <v>1.00733836902316</v>
       </c>
       <c r="D21">
-        <v>1.055070633184031</v>
+        <v>1.02854900023637</v>
       </c>
       <c r="E21">
-        <v>1.056209714609799</v>
+        <v>1.022845840808085</v>
       </c>
       <c r="F21">
-        <v>1.066434217533732</v>
+        <v>1.031126894785963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04879819606982</v>
+        <v>1.0526685874931</v>
       </c>
       <c r="J21">
-        <v>1.0555861315277</v>
+        <v>1.036532448150772</v>
       </c>
       <c r="K21">
-        <v>1.058581214409133</v>
+        <v>1.043008963607887</v>
       </c>
       <c r="L21">
-        <v>1.059716228955257</v>
+        <v>1.037406943864069</v>
       </c>
       <c r="M21">
-        <v>1.069904655761279</v>
+        <v>1.045541617436461</v>
       </c>
       <c r="N21">
-        <v>1.022265805344157</v>
+        <v>1.015411677589621</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048382675111437</v>
+        <v>1.003457178498091</v>
       </c>
       <c r="D22">
-        <v>1.054509060261116</v>
+        <v>1.02558080039264</v>
       </c>
       <c r="E22">
-        <v>1.055582733882708</v>
+        <v>1.019637106255835</v>
       </c>
       <c r="F22">
-        <v>1.065757082038923</v>
+        <v>1.02767996308152</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048574125898839</v>
+        <v>1.051161034877122</v>
       </c>
       <c r="J22">
-        <v>1.055120794936983</v>
+        <v>1.034046378790123</v>
       </c>
       <c r="K22">
-        <v>1.058148036128133</v>
+        <v>1.040661977443623</v>
       </c>
       <c r="L22">
-        <v>1.059217724440559</v>
+        <v>1.034829333919919</v>
       </c>
       <c r="M22">
-        <v>1.06935474744001</v>
+        <v>1.04272231988226</v>
       </c>
       <c r="N22">
-        <v>1.022107373473134</v>
+        <v>1.014556489825229</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.048759316480666</v>
+        <v>1.005523862125798</v>
       </c>
       <c r="D23">
-        <v>1.054806728913085</v>
+        <v>1.027160801075873</v>
       </c>
       <c r="E23">
-        <v>1.055915038296684</v>
+        <v>1.021344916913899</v>
       </c>
       <c r="F23">
-        <v>1.066115963258347</v>
+        <v>1.029514542763072</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048693023824584</v>
+        <v>1.051964682622743</v>
       </c>
       <c r="J23">
-        <v>1.055367504412512</v>
+        <v>1.035370363267437</v>
       </c>
       <c r="K23">
-        <v>1.058377707647017</v>
+        <v>1.041911926509269</v>
       </c>
       <c r="L23">
-        <v>1.059481986334261</v>
+        <v>1.036201759130487</v>
       </c>
       <c r="M23">
-        <v>1.069646246799588</v>
+        <v>1.044223324700067</v>
       </c>
       <c r="N23">
-        <v>1.022191379534404</v>
+        <v>1.015011940856947</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.050242927105043</v>
+        <v>1.0134618594451</v>
       </c>
       <c r="D24">
-        <v>1.055979321656219</v>
+        <v>1.033240507742453</v>
       </c>
       <c r="E24">
-        <v>1.057224834961301</v>
+        <v>1.027921492816058</v>
       </c>
       <c r="F24">
-        <v>1.067530638241888</v>
+        <v>1.036579504929015</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049158581553843</v>
+        <v>1.055031628331359</v>
       </c>
       <c r="J24">
-        <v>1.056338202004087</v>
+        <v>1.040451375734381</v>
       </c>
       <c r="K24">
-        <v>1.059281111403389</v>
+        <v>1.046707989511258</v>
       </c>
       <c r="L24">
-        <v>1.060522462478114</v>
+        <v>1.041475398110535</v>
       </c>
       <c r="M24">
-        <v>1.070794234655626</v>
+        <v>1.049993315617774</v>
       </c>
       <c r="N24">
-        <v>1.022521695339502</v>
+        <v>1.016759522582025</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051966231111543</v>
+        <v>1.022295276783154</v>
       </c>
       <c r="D25">
-        <v>1.057341460392908</v>
+        <v>1.040025776736458</v>
       </c>
       <c r="E25">
-        <v>1.058747944285346</v>
+        <v>1.03527208520196</v>
       </c>
       <c r="F25">
-        <v>1.06917596549898</v>
+        <v>1.044476562664854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04969357500593</v>
+        <v>1.05840231381921</v>
       </c>
       <c r="J25">
-        <v>1.057463427654091</v>
+        <v>1.046094926993719</v>
       </c>
       <c r="K25">
-        <v>1.060327795090404</v>
+        <v>1.052032967665535</v>
       </c>
       <c r="L25">
-        <v>1.06173005911109</v>
+        <v>1.047346455420664</v>
       </c>
       <c r="M25">
-        <v>1.072127170040976</v>
+        <v>1.056421554363788</v>
       </c>
       <c r="N25">
-        <v>1.022904151273013</v>
+        <v>1.018699714725435</v>
       </c>
     </row>
   </sheetData>
